--- a/autism-child-data.xlsx
+++ b/autism-child-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\#DataMining\Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{419EFAA0-DCE8-49A1-B04F-8AE3AF1E1525}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1304D06-B585-4956-8FDB-C96C3E2ACF59}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="autism-child-data" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1086,19 +1086,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1411,7 +1409,7 @@
       <c r="O5" t="s">
         <v>2</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -1476,7 +1474,7 @@
       <c r="O6" t="s">
         <v>2</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1541,7 +1539,7 @@
       <c r="O7" t="s">
         <v>2</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1606,7 +1604,7 @@
       <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1671,7 +1669,7 @@
       <c r="O9" t="s">
         <v>9</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -1736,7 +1734,7 @@
       <c r="O10" t="s">
         <v>2</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -1801,7 +1799,7 @@
       <c r="O11" t="s">
         <v>9</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -1866,7 +1864,7 @@
       <c r="O12" t="s">
         <v>2</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -1931,7 +1929,7 @@
       <c r="O13" t="s">
         <v>2</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="1" t="s">
@@ -1996,7 +1994,7 @@
       <c r="O14" t="s">
         <v>2</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -2061,7 +2059,7 @@
       <c r="O15" t="s">
         <v>2</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -2126,7 +2124,7 @@
       <c r="O16" t="s">
         <v>9</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -2191,7 +2189,7 @@
       <c r="O17" t="s">
         <v>2</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Q17" s="1" t="s">
@@ -2256,7 +2254,7 @@
       <c r="O18" t="s">
         <v>2</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -2321,7 +2319,7 @@
       <c r="O19" t="s">
         <v>2</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q19" s="1" t="s">
@@ -2386,7 +2384,7 @@
       <c r="O20" t="s">
         <v>2</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="1" t="s">
@@ -2451,7 +2449,7 @@
       <c r="O21" t="s">
         <v>2</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q21" s="1" t="s">
@@ -2516,7 +2514,7 @@
       <c r="O22" t="s">
         <v>2</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q22" s="1" t="s">
@@ -2581,7 +2579,7 @@
       <c r="O23" t="s">
         <v>2</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="1" t="s">
@@ -2646,7 +2644,7 @@
       <c r="O24" t="s">
         <v>2</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -2711,7 +2709,7 @@
       <c r="O25" t="s">
         <v>9</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q25" s="1" t="s">
@@ -2776,7 +2774,7 @@
       <c r="O26" t="s">
         <v>2</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="Q26" s="1" t="s">
@@ -2841,7 +2839,7 @@
       <c r="O27" t="s">
         <v>2</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -2906,7 +2904,7 @@
       <c r="O28" t="s">
         <v>2</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q28" s="1" t="s">
@@ -2971,7 +2969,7 @@
       <c r="O29" t="s">
         <v>2</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q29" s="1" t="s">
@@ -3036,7 +3034,7 @@
       <c r="O30" t="s">
         <v>9</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Q30" s="1" t="s">
@@ -3101,7 +3099,7 @@
       <c r="O31" t="s">
         <v>2</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q31" s="1" t="s">
@@ -3166,7 +3164,7 @@
       <c r="O32" t="s">
         <v>2</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q32" s="1" t="s">
@@ -3231,7 +3229,7 @@
       <c r="O33" t="s">
         <v>2</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="1" t="s">
@@ -3296,7 +3294,7 @@
       <c r="O34" t="s">
         <v>2</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="1" t="s">
@@ -3361,7 +3359,7 @@
       <c r="O35" t="s">
         <v>2</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="1" t="s">
@@ -3426,7 +3424,7 @@
       <c r="O36" t="s">
         <v>2</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="1" t="s">
@@ -3491,7 +3489,7 @@
       <c r="O37" t="s">
         <v>2</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q37" s="1" t="s">
@@ -3556,7 +3554,7 @@
       <c r="O38" t="s">
         <v>9</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q38" s="1" t="s">
@@ -3621,7 +3619,7 @@
       <c r="O39" t="s">
         <v>2</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q39" s="1" t="s">
@@ -3686,7 +3684,7 @@
       <c r="O40" t="s">
         <v>2</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q40" s="1" t="s">
@@ -3751,7 +3749,7 @@
       <c r="O41" t="s">
         <v>2</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q41" s="1" t="s">
@@ -3816,7 +3814,7 @@
       <c r="O42" t="s">
         <v>2</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q42" s="1" t="s">
@@ -3881,7 +3879,7 @@
       <c r="O43" t="s">
         <v>2</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q43" s="1" t="s">
@@ -3946,7 +3944,7 @@
       <c r="O44" t="s">
         <v>2</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q44" s="1" t="s">
@@ -4011,7 +4009,7 @@
       <c r="O45" t="s">
         <v>2</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="Q45" s="1" t="s">
@@ -4076,7 +4074,7 @@
       <c r="O46" t="s">
         <v>2</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q46" s="1" t="s">
@@ -4141,7 +4139,7 @@
       <c r="O47" t="s">
         <v>2</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q47" s="1" t="s">
@@ -4206,7 +4204,7 @@
       <c r="O48" t="s">
         <v>2</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q48" s="1" t="s">
@@ -4271,7 +4269,7 @@
       <c r="O49" t="s">
         <v>2</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q49" s="1" t="s">
@@ -4336,7 +4334,7 @@
       <c r="O50" t="s">
         <v>9</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q50" s="1" t="s">
@@ -4401,7 +4399,7 @@
       <c r="O51" t="s">
         <v>2</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q51" s="1" t="s">
@@ -4466,7 +4464,7 @@
       <c r="O52" t="s">
         <v>2</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q52" s="1" t="s">
@@ -4531,7 +4529,7 @@
       <c r="O53" t="s">
         <v>9</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q53" s="1" t="s">
@@ -4596,7 +4594,7 @@
       <c r="O54" t="s">
         <v>2</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q54" s="1" t="s">
@@ -4661,7 +4659,7 @@
       <c r="O55" t="s">
         <v>9</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q55" s="1" t="s">
@@ -4726,7 +4724,7 @@
       <c r="O56" t="s">
         <v>2</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q56" s="1" t="s">
@@ -4791,7 +4789,7 @@
       <c r="O57" t="s">
         <v>2</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q57" s="1" t="s">
@@ -4856,7 +4854,7 @@
       <c r="O58" t="s">
         <v>2</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q58" s="1" t="s">
@@ -4921,7 +4919,7 @@
       <c r="O59" t="s">
         <v>2</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q59" s="1" t="s">
@@ -4986,7 +4984,7 @@
       <c r="O60" t="s">
         <v>2</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q60" s="1" t="s">
@@ -5051,7 +5049,7 @@
       <c r="O61" t="s">
         <v>2</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q61" s="1" t="s">
@@ -5116,7 +5114,7 @@
       <c r="O62" t="s">
         <v>2</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q62" s="1" t="s">
@@ -5181,7 +5179,7 @@
       <c r="O63" t="s">
         <v>9</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q63" s="1" t="s">
@@ -5246,7 +5244,7 @@
       <c r="O64" t="s">
         <v>9</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q64" s="1" t="s">
@@ -5311,7 +5309,7 @@
       <c r="O65" t="s">
         <v>2</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q65" s="1" t="s">
@@ -5376,7 +5374,7 @@
       <c r="O66" t="s">
         <v>2</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q66" s="1" t="s">
@@ -5441,7 +5439,7 @@
       <c r="O67" t="s">
         <v>2</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q67" s="1" t="s">
@@ -5506,7 +5504,7 @@
       <c r="O68" t="s">
         <v>2</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q68" s="1" t="s">
@@ -5571,7 +5569,7 @@
       <c r="O69" t="s">
         <v>2</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q69" s="1" t="s">
@@ -5636,7 +5634,7 @@
       <c r="O70" t="s">
         <v>2</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="1" t="s">
@@ -5701,7 +5699,7 @@
       <c r="O71" t="s">
         <v>2</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q71" s="1" t="s">
@@ -5766,7 +5764,7 @@
       <c r="O72" t="s">
         <v>2</v>
       </c>
-      <c r="P72" t="s">
+      <c r="P72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q72" s="1" t="s">
@@ -5831,7 +5829,7 @@
       <c r="O73" t="s">
         <v>2</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="1" t="s">
@@ -5896,7 +5894,7 @@
       <c r="O74" t="s">
         <v>2</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q74" s="1" t="s">
@@ -5961,7 +5959,7 @@
       <c r="O75" t="s">
         <v>2</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q75" s="1" t="s">
@@ -6026,7 +6024,7 @@
       <c r="O76" t="s">
         <v>2</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q76" s="1" t="s">
@@ -6091,7 +6089,7 @@
       <c r="O77" t="s">
         <v>2</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q77" s="1" t="s">
@@ -6156,7 +6154,7 @@
       <c r="O78" t="s">
         <v>2</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q78" s="1" t="s">
@@ -6221,7 +6219,7 @@
       <c r="O79" t="s">
         <v>2</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P79" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q79" s="1" t="s">
@@ -6286,7 +6284,7 @@
       <c r="O80" t="s">
         <v>2</v>
       </c>
-      <c r="P80" t="s">
+      <c r="P80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q80" s="1" t="s">
@@ -6351,7 +6349,7 @@
       <c r="O81" t="s">
         <v>2</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q81" s="1" t="s">
@@ -6416,7 +6414,7 @@
       <c r="O82" t="s">
         <v>2</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q82" s="1" t="s">
@@ -6481,7 +6479,7 @@
       <c r="O83" t="s">
         <v>2</v>
       </c>
-      <c r="P83" t="s">
+      <c r="P83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q83" s="1" t="s">
@@ -6546,7 +6544,7 @@
       <c r="O84" t="s">
         <v>9</v>
       </c>
-      <c r="P84" t="s">
+      <c r="P84" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q84" s="1" t="s">
@@ -6611,7 +6609,7 @@
       <c r="O85" t="s">
         <v>9</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q85" s="1" t="s">
@@ -6676,7 +6674,7 @@
       <c r="O86" t="s">
         <v>2</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q86" s="1" t="s">
@@ -6741,7 +6739,7 @@
       <c r="O87" t="s">
         <v>2</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P87" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q87" s="1" t="s">
@@ -6806,7 +6804,7 @@
       <c r="O88" t="s">
         <v>2</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P88" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q88" s="1" t="s">
@@ -6871,7 +6869,7 @@
       <c r="O89" t="s">
         <v>2</v>
       </c>
-      <c r="P89" t="s">
+      <c r="P89" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q89" s="1" t="s">
@@ -6936,7 +6934,7 @@
       <c r="O90" t="s">
         <v>2</v>
       </c>
-      <c r="P90" t="s">
+      <c r="P90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q90" s="1" t="s">
@@ -7001,7 +6999,7 @@
       <c r="O91" t="s">
         <v>2</v>
       </c>
-      <c r="P91" t="s">
+      <c r="P91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q91" s="1" t="s">
@@ -7066,7 +7064,7 @@
       <c r="O92" t="s">
         <v>2</v>
       </c>
-      <c r="P92" t="s">
+      <c r="P92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q92" s="1" t="s">
@@ -7131,7 +7129,7 @@
       <c r="O93" t="s">
         <v>2</v>
       </c>
-      <c r="P93" t="s">
+      <c r="P93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q93" s="1" t="s">
@@ -7196,7 +7194,7 @@
       <c r="O94" t="s">
         <v>2</v>
       </c>
-      <c r="P94" t="s">
+      <c r="P94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q94" s="1" t="s">
@@ -7261,7 +7259,7 @@
       <c r="O95" t="s">
         <v>2</v>
       </c>
-      <c r="P95" t="s">
+      <c r="P95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q95" s="1" t="s">
@@ -7326,7 +7324,7 @@
       <c r="O96" t="s">
         <v>9</v>
       </c>
-      <c r="P96" t="s">
+      <c r="P96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q96" s="1" t="s">
@@ -7391,7 +7389,7 @@
       <c r="O97" t="s">
         <v>9</v>
       </c>
-      <c r="P97" t="s">
+      <c r="P97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q97" s="1" t="s">
@@ -7456,7 +7454,7 @@
       <c r="O98" t="s">
         <v>2</v>
       </c>
-      <c r="P98" t="s">
+      <c r="P98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q98" s="1" t="s">
@@ -7521,7 +7519,7 @@
       <c r="O99" t="s">
         <v>2</v>
       </c>
-      <c r="P99" t="s">
+      <c r="P99" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -7586,7 +7584,7 @@
       <c r="O100" t="s">
         <v>2</v>
       </c>
-      <c r="P100" t="s">
+      <c r="P100" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q100" s="1" t="s">
@@ -7651,7 +7649,7 @@
       <c r="O101" t="s">
         <v>2</v>
       </c>
-      <c r="P101" t="s">
+      <c r="P101" s="1" t="s">
         <v>51</v>
       </c>
       <c r="Q101" s="1" t="s">
@@ -7716,7 +7714,7 @@
       <c r="O102" t="s">
         <v>2</v>
       </c>
-      <c r="P102" t="s">
+      <c r="P102" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Q102" s="1" t="s">
@@ -7781,7 +7779,7 @@
       <c r="O103" t="s">
         <v>9</v>
       </c>
-      <c r="P103" t="s">
+      <c r="P103" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q103" s="1" t="s">
@@ -7846,7 +7844,7 @@
       <c r="O104" t="s">
         <v>2</v>
       </c>
-      <c r="P104" t="s">
+      <c r="P104" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q104" s="1" t="s">
@@ -7911,7 +7909,7 @@
       <c r="O105" t="s">
         <v>2</v>
       </c>
-      <c r="P105" t="s">
+      <c r="P105" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q105" s="1" t="s">
@@ -7976,7 +7974,7 @@
       <c r="O106" t="s">
         <v>2</v>
       </c>
-      <c r="P106" t="s">
+      <c r="P106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q106" s="1" t="s">
@@ -8041,7 +8039,7 @@
       <c r="O107" t="s">
         <v>2</v>
       </c>
-      <c r="P107" t="s">
+      <c r="P107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q107" s="1" t="s">
@@ -8106,7 +8104,7 @@
       <c r="O108" t="s">
         <v>9</v>
       </c>
-      <c r="P108" t="s">
+      <c r="P108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q108" s="1" t="s">
@@ -8171,7 +8169,7 @@
       <c r="O109" t="s">
         <v>2</v>
       </c>
-      <c r="P109" t="s">
+      <c r="P109" s="1" t="s">
         <v>54</v>
       </c>
       <c r="Q109" s="1" t="s">
@@ -8236,7 +8234,7 @@
       <c r="O110" t="s">
         <v>2</v>
       </c>
-      <c r="P110" t="s">
+      <c r="P110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q110" s="1" t="s">
@@ -8301,7 +8299,7 @@
       <c r="O111" t="s">
         <v>2</v>
       </c>
-      <c r="P111" t="s">
+      <c r="P111" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q111" s="1" t="s">
@@ -8366,7 +8364,7 @@
       <c r="O112" t="s">
         <v>2</v>
       </c>
-      <c r="P112" t="s">
+      <c r="P112" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q112" s="1" t="s">
@@ -8431,7 +8429,7 @@
       <c r="O113" t="s">
         <v>9</v>
       </c>
-      <c r="P113" t="s">
+      <c r="P113" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q113" s="1" t="s">
@@ -8496,7 +8494,7 @@
       <c r="O114" t="s">
         <v>2</v>
       </c>
-      <c r="P114" t="s">
+      <c r="P114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q114" s="1" t="s">
@@ -8561,7 +8559,7 @@
       <c r="O115" t="s">
         <v>2</v>
       </c>
-      <c r="P115" t="s">
+      <c r="P115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q115" s="1" t="s">
@@ -8626,7 +8624,7 @@
       <c r="O116" t="s">
         <v>2</v>
       </c>
-      <c r="P116" t="s">
+      <c r="P116" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q116" s="1" t="s">
@@ -8691,7 +8689,7 @@
       <c r="O117" t="s">
         <v>2</v>
       </c>
-      <c r="P117" t="s">
+      <c r="P117" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Q117" s="1" t="s">
@@ -8756,7 +8754,7 @@
       <c r="O118" t="s">
         <v>9</v>
       </c>
-      <c r="P118" t="s">
+      <c r="P118" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q118" s="1" t="s">
@@ -8821,7 +8819,7 @@
       <c r="O119" t="s">
         <v>2</v>
       </c>
-      <c r="P119" t="s">
+      <c r="P119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q119" s="1" t="s">
@@ -8886,7 +8884,7 @@
       <c r="O120" t="s">
         <v>2</v>
       </c>
-      <c r="P120" t="s">
+      <c r="P120" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q120" s="1" t="s">
@@ -8951,7 +8949,7 @@
       <c r="O121" t="s">
         <v>2</v>
       </c>
-      <c r="P121" t="s">
+      <c r="P121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q121" s="1" t="s">
@@ -9016,7 +9014,7 @@
       <c r="O122" t="s">
         <v>2</v>
       </c>
-      <c r="P122" t="s">
+      <c r="P122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q122" s="1" t="s">
@@ -9081,7 +9079,7 @@
       <c r="O123" t="s">
         <v>2</v>
       </c>
-      <c r="P123" t="s">
+      <c r="P123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q123" s="1" t="s">
@@ -9146,7 +9144,7 @@
       <c r="O124" t="s">
         <v>2</v>
       </c>
-      <c r="P124" t="s">
+      <c r="P124" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q124" s="1" t="s">
@@ -9211,7 +9209,7 @@
       <c r="O125" t="s">
         <v>9</v>
       </c>
-      <c r="P125" t="s">
+      <c r="P125" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q125" s="1" t="s">
@@ -9276,7 +9274,7 @@
       <c r="O126" t="s">
         <v>2</v>
       </c>
-      <c r="P126" t="s">
+      <c r="P126" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q126" s="1" t="s">
@@ -9341,7 +9339,7 @@
       <c r="O127" t="s">
         <v>2</v>
       </c>
-      <c r="P127" t="s">
+      <c r="P127" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q127" s="1" t="s">
@@ -9406,7 +9404,7 @@
       <c r="O128" t="s">
         <v>2</v>
       </c>
-      <c r="P128" t="s">
+      <c r="P128" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q128" s="1" t="s">
@@ -9471,7 +9469,7 @@
       <c r="O129" t="s">
         <v>2</v>
       </c>
-      <c r="P129" t="s">
+      <c r="P129" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q129" s="1" t="s">
@@ -9536,7 +9534,7 @@
       <c r="O130" t="s">
         <v>2</v>
       </c>
-      <c r="P130" t="s">
+      <c r="P130" s="1" t="s">
         <v>51</v>
       </c>
       <c r="Q130" s="1" t="s">
@@ -9601,7 +9599,7 @@
       <c r="O131" t="s">
         <v>2</v>
       </c>
-      <c r="P131" t="s">
+      <c r="P131" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Q131" s="1" t="s">
@@ -9666,7 +9664,7 @@
       <c r="O132" t="s">
         <v>2</v>
       </c>
-      <c r="P132" t="s">
+      <c r="P132" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q132" s="1" t="s">
@@ -9731,7 +9729,7 @@
       <c r="O133" t="s">
         <v>2</v>
       </c>
-      <c r="P133" t="s">
+      <c r="P133" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q133" s="1" t="s">
@@ -9796,7 +9794,7 @@
       <c r="O134" t="s">
         <v>2</v>
       </c>
-      <c r="P134" t="s">
+      <c r="P134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q134" s="1" t="s">
@@ -9861,7 +9859,7 @@
       <c r="O135" t="s">
         <v>2</v>
       </c>
-      <c r="P135" t="s">
+      <c r="P135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q135" s="1" t="s">
@@ -9926,7 +9924,7 @@
       <c r="O136" t="s">
         <v>2</v>
       </c>
-      <c r="P136" t="s">
+      <c r="P136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q136" s="1" t="s">
@@ -9991,7 +9989,7 @@
       <c r="O137" t="s">
         <v>2</v>
       </c>
-      <c r="P137" t="s">
+      <c r="P137" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q137" s="1" t="s">
@@ -10056,7 +10054,7 @@
       <c r="O138" t="s">
         <v>9</v>
       </c>
-      <c r="P138" t="s">
+      <c r="P138" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q138" s="1" t="s">
@@ -10121,7 +10119,7 @@
       <c r="O139" t="s">
         <v>2</v>
       </c>
-      <c r="P139" t="s">
+      <c r="P139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q139" s="1" t="s">
@@ -10186,7 +10184,7 @@
       <c r="O140" t="s">
         <v>2</v>
       </c>
-      <c r="P140" t="s">
+      <c r="P140" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q140" s="1" t="s">
@@ -10251,7 +10249,7 @@
       <c r="O141" t="s">
         <v>2</v>
       </c>
-      <c r="P141" t="s">
+      <c r="P141" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q141" s="1" t="s">
@@ -10316,7 +10314,7 @@
       <c r="O142" t="s">
         <v>2</v>
       </c>
-      <c r="P142" t="s">
+      <c r="P142" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q142" s="1" t="s">
@@ -10381,7 +10379,7 @@
       <c r="O143" t="s">
         <v>2</v>
       </c>
-      <c r="P143" t="s">
+      <c r="P143" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q143" s="1" t="s">
@@ -10446,7 +10444,7 @@
       <c r="O144" t="s">
         <v>2</v>
       </c>
-      <c r="P144" t="s">
+      <c r="P144" s="1" t="s">
         <v>22</v>
       </c>
       <c r="Q144" s="1" t="s">
@@ -10511,7 +10509,7 @@
       <c r="O145" t="s">
         <v>2</v>
       </c>
-      <c r="P145" t="s">
+      <c r="P145" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q145" s="1" t="s">
@@ -10576,7 +10574,7 @@
       <c r="O146" t="s">
         <v>2</v>
       </c>
-      <c r="P146" t="s">
+      <c r="P146" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q146" s="1" t="s">
@@ -10641,7 +10639,7 @@
       <c r="O147" t="s">
         <v>2</v>
       </c>
-      <c r="P147" t="s">
+      <c r="P147" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q147" s="1" t="s">
@@ -10706,7 +10704,7 @@
       <c r="O148" t="s">
         <v>2</v>
       </c>
-      <c r="P148" t="s">
+      <c r="P148" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Q148" s="1" t="s">
@@ -10771,7 +10769,7 @@
       <c r="O149" t="s">
         <v>2</v>
       </c>
-      <c r="P149" t="s">
+      <c r="P149" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q149" s="1" t="s">
@@ -10836,7 +10834,7 @@
       <c r="O150" t="s">
         <v>9</v>
       </c>
-      <c r="P150" t="s">
+      <c r="P150" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q150" s="1" t="s">
@@ -10901,7 +10899,7 @@
       <c r="O151" t="s">
         <v>2</v>
       </c>
-      <c r="P151" t="s">
+      <c r="P151" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q151" s="1" t="s">
@@ -10966,7 +10964,7 @@
       <c r="O152" t="s">
         <v>2</v>
       </c>
-      <c r="P152" t="s">
+      <c r="P152" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q152" s="1" t="s">
@@ -11031,7 +11029,7 @@
       <c r="O153" t="s">
         <v>2</v>
       </c>
-      <c r="P153" t="s">
+      <c r="P153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q153" s="1" t="s">
@@ -11096,7 +11094,7 @@
       <c r="O154" t="s">
         <v>2</v>
       </c>
-      <c r="P154" t="s">
+      <c r="P154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q154" s="1" t="s">
@@ -11161,7 +11159,7 @@
       <c r="O155" t="s">
         <v>2</v>
       </c>
-      <c r="P155" t="s">
+      <c r="P155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q155" s="1" t="s">
@@ -11226,7 +11224,7 @@
       <c r="O156" t="s">
         <v>2</v>
       </c>
-      <c r="P156" t="s">
+      <c r="P156" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q156" s="1" t="s">
@@ -11291,7 +11289,7 @@
       <c r="O157" t="s">
         <v>2</v>
       </c>
-      <c r="P157" t="s">
+      <c r="P157" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q157" s="1" t="s">
@@ -11356,7 +11354,7 @@
       <c r="O158" t="s">
         <v>2</v>
       </c>
-      <c r="P158" t="s">
+      <c r="P158" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q158" s="1" t="s">
@@ -11421,7 +11419,7 @@
       <c r="O159" t="s">
         <v>2</v>
       </c>
-      <c r="P159" t="s">
+      <c r="P159" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q159" s="1" t="s">
@@ -11486,7 +11484,7 @@
       <c r="O160" t="s">
         <v>2</v>
       </c>
-      <c r="P160" t="s">
+      <c r="P160" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q160" s="1" t="s">
@@ -11551,7 +11549,7 @@
       <c r="O161" t="s">
         <v>2</v>
       </c>
-      <c r="P161" t="s">
+      <c r="P161" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q161" s="1" t="s">
@@ -11616,7 +11614,7 @@
       <c r="O162" t="s">
         <v>2</v>
       </c>
-      <c r="P162" t="s">
+      <c r="P162" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q162" s="1" t="s">
@@ -11681,7 +11679,7 @@
       <c r="O163" t="s">
         <v>2</v>
       </c>
-      <c r="P163" t="s">
+      <c r="P163" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q163" s="1" t="s">
@@ -11746,7 +11744,7 @@
       <c r="O164" t="s">
         <v>2</v>
       </c>
-      <c r="P164" t="s">
+      <c r="P164" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q164" s="1" t="s">
@@ -11811,7 +11809,7 @@
       <c r="O165" t="s">
         <v>9</v>
       </c>
-      <c r="P165" t="s">
+      <c r="P165" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q165" s="1" t="s">
@@ -11876,7 +11874,7 @@
       <c r="O166" t="s">
         <v>2</v>
       </c>
-      <c r="P166" t="s">
+      <c r="P166" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q166" s="1" t="s">
@@ -11941,7 +11939,7 @@
       <c r="O167" t="s">
         <v>2</v>
       </c>
-      <c r="P167" t="s">
+      <c r="P167" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q167" s="1" t="s">
@@ -12006,7 +12004,7 @@
       <c r="O168" t="s">
         <v>2</v>
       </c>
-      <c r="P168" t="s">
+      <c r="P168" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q168" s="1" t="s">
@@ -12071,7 +12069,7 @@
       <c r="O169" t="s">
         <v>2</v>
       </c>
-      <c r="P169" t="s">
+      <c r="P169" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q169" s="1" t="s">
@@ -12136,7 +12134,7 @@
       <c r="O170" t="s">
         <v>2</v>
       </c>
-      <c r="P170" t="s">
+      <c r="P170" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Q170" s="1" t="s">
@@ -12201,7 +12199,7 @@
       <c r="O171" t="s">
         <v>2</v>
       </c>
-      <c r="P171" t="s">
+      <c r="P171" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q171" s="1" t="s">
@@ -12266,7 +12264,7 @@
       <c r="O172" t="s">
         <v>2</v>
       </c>
-      <c r="P172" t="s">
+      <c r="P172" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q172" s="1" t="s">
@@ -12331,7 +12329,7 @@
       <c r="O173" t="s">
         <v>9</v>
       </c>
-      <c r="P173" t="s">
+      <c r="P173" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Q173" s="1" t="s">
@@ -12396,7 +12394,7 @@
       <c r="O174" t="s">
         <v>9</v>
       </c>
-      <c r="P174" t="s">
+      <c r="P174" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Q174" s="1" t="s">
@@ -12461,7 +12459,7 @@
       <c r="O175" t="s">
         <v>2</v>
       </c>
-      <c r="P175" t="s">
+      <c r="P175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q175" s="1" t="s">
@@ -12526,7 +12524,7 @@
       <c r="O176" t="s">
         <v>2</v>
       </c>
-      <c r="P176" t="s">
+      <c r="P176" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q176" s="1" t="s">
@@ -12591,7 +12589,7 @@
       <c r="O177" t="s">
         <v>2</v>
       </c>
-      <c r="P177" t="s">
+      <c r="P177" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q177" s="1" t="s">
@@ -12656,7 +12654,7 @@
       <c r="O178" t="s">
         <v>2</v>
       </c>
-      <c r="P178" t="s">
+      <c r="P178" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q178" s="1" t="s">
@@ -12721,7 +12719,7 @@
       <c r="O179" t="s">
         <v>2</v>
       </c>
-      <c r="P179" t="s">
+      <c r="P179" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q179" s="1" t="s">
@@ -12786,7 +12784,7 @@
       <c r="O180" t="s">
         <v>2</v>
       </c>
-      <c r="P180" t="s">
+      <c r="P180" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q180" s="1" t="s">
@@ -12851,7 +12849,7 @@
       <c r="O181" t="s">
         <v>2</v>
       </c>
-      <c r="P181" t="s">
+      <c r="P181" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q181" s="1" t="s">
@@ -12916,7 +12914,7 @@
       <c r="O182" t="s">
         <v>9</v>
       </c>
-      <c r="P182" t="s">
+      <c r="P182" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q182" s="1" t="s">
@@ -12981,7 +12979,7 @@
       <c r="O183" t="s">
         <v>2</v>
       </c>
-      <c r="P183" t="s">
+      <c r="P183" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q183" s="1" t="s">
@@ -13046,7 +13044,7 @@
       <c r="O184" t="s">
         <v>2</v>
       </c>
-      <c r="P184" t="s">
+      <c r="P184" s="1" t="s">
         <v>73</v>
       </c>
       <c r="Q184" s="1" t="s">
@@ -13111,7 +13109,7 @@
       <c r="O185" t="s">
         <v>9</v>
       </c>
-      <c r="P185" t="s">
+      <c r="P185" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q185" s="1" t="s">
@@ -13176,7 +13174,7 @@
       <c r="O186" t="s">
         <v>2</v>
       </c>
-      <c r="P186" t="s">
+      <c r="P186" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q186" s="1" t="s">
@@ -13241,7 +13239,7 @@
       <c r="O187" t="s">
         <v>2</v>
       </c>
-      <c r="P187" t="s">
+      <c r="P187" s="1" t="s">
         <v>74</v>
       </c>
       <c r="Q187" s="1" t="s">
@@ -13306,7 +13304,7 @@
       <c r="O188" t="s">
         <v>2</v>
       </c>
-      <c r="P188" t="s">
+      <c r="P188" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q188" s="1" t="s">
@@ -13371,7 +13369,7 @@
       <c r="O189" t="s">
         <v>2</v>
       </c>
-      <c r="P189" t="s">
+      <c r="P189" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q189" s="1" t="s">
@@ -13436,7 +13434,7 @@
       <c r="O190" t="s">
         <v>2</v>
       </c>
-      <c r="P190" t="s">
+      <c r="P190" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q190" s="1" t="s">
@@ -13501,7 +13499,7 @@
       <c r="O191" t="s">
         <v>2</v>
       </c>
-      <c r="P191" t="s">
+      <c r="P191" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q191" s="1" t="s">
@@ -13566,7 +13564,7 @@
       <c r="O192" t="s">
         <v>2</v>
       </c>
-      <c r="P192" t="s">
+      <c r="P192" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q192" s="1" t="s">
@@ -13631,7 +13629,7 @@
       <c r="O193" t="s">
         <v>2</v>
       </c>
-      <c r="P193" t="s">
+      <c r="P193" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q193" s="1" t="s">
@@ -13696,7 +13694,7 @@
       <c r="O194" t="s">
         <v>2</v>
       </c>
-      <c r="P194" t="s">
+      <c r="P194" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q194" s="1" t="s">
@@ -13761,7 +13759,7 @@
       <c r="O195" t="s">
         <v>2</v>
       </c>
-      <c r="P195" t="s">
+      <c r="P195" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q195" s="1" t="s">
@@ -13826,7 +13824,7 @@
       <c r="O196" t="s">
         <v>2</v>
       </c>
-      <c r="P196" t="s">
+      <c r="P196" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q196" s="1" t="s">
@@ -13891,7 +13889,7 @@
       <c r="O197" t="s">
         <v>2</v>
       </c>
-      <c r="P197" t="s">
+      <c r="P197" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q197" s="1" t="s">
@@ -13956,7 +13954,7 @@
       <c r="O198" t="s">
         <v>2</v>
       </c>
-      <c r="P198" t="s">
+      <c r="P198" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q198" s="1" t="s">
@@ -14021,7 +14019,7 @@
       <c r="O199" t="s">
         <v>2</v>
       </c>
-      <c r="P199" t="s">
+      <c r="P199" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q199" s="1" t="s">
@@ -14086,7 +14084,7 @@
       <c r="O200" t="s">
         <v>2</v>
       </c>
-      <c r="P200" t="s">
+      <c r="P200" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q200" s="1" t="s">
@@ -14151,7 +14149,7 @@
       <c r="O201" t="s">
         <v>2</v>
       </c>
-      <c r="P201" t="s">
+      <c r="P201" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q201" s="1" t="s">
@@ -14216,7 +14214,7 @@
       <c r="O202" t="s">
         <v>2</v>
       </c>
-      <c r="P202" t="s">
+      <c r="P202" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q202" s="1" t="s">
@@ -14281,7 +14279,7 @@
       <c r="O203" t="s">
         <v>2</v>
       </c>
-      <c r="P203" t="s">
+      <c r="P203" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q203" s="1" t="s">
@@ -14346,7 +14344,7 @@
       <c r="O204" t="s">
         <v>2</v>
       </c>
-      <c r="P204" t="s">
+      <c r="P204" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q204" s="1" t="s">
@@ -14411,7 +14409,7 @@
       <c r="O205" t="s">
         <v>2</v>
       </c>
-      <c r="P205" t="s">
+      <c r="P205" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q205" s="1" t="s">
@@ -14476,7 +14474,7 @@
       <c r="O206" t="s">
         <v>2</v>
       </c>
-      <c r="P206" t="s">
+      <c r="P206" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q206" s="1" t="s">
@@ -14541,7 +14539,7 @@
       <c r="O207" t="s">
         <v>2</v>
       </c>
-      <c r="P207" t="s">
+      <c r="P207" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q207" s="1" t="s">
@@ -14606,7 +14604,7 @@
       <c r="O208" t="s">
         <v>9</v>
       </c>
-      <c r="P208" t="s">
+      <c r="P208" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q208" s="1" t="s">
@@ -14671,7 +14669,7 @@
       <c r="O209" t="s">
         <v>9</v>
       </c>
-      <c r="P209" t="s">
+      <c r="P209" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q209" s="1" t="s">
@@ -14736,7 +14734,7 @@
       <c r="O210" t="s">
         <v>2</v>
       </c>
-      <c r="P210" t="s">
+      <c r="P210" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q210" s="1" t="s">
@@ -14801,7 +14799,7 @@
       <c r="O211" t="s">
         <v>2</v>
       </c>
-      <c r="P211" t="s">
+      <c r="P211" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q211" s="1" t="s">
@@ -14866,7 +14864,7 @@
       <c r="O212" t="s">
         <v>9</v>
       </c>
-      <c r="P212" t="s">
+      <c r="P212" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q212" s="1" t="s">
@@ -14931,7 +14929,7 @@
       <c r="O213" t="s">
         <v>2</v>
       </c>
-      <c r="P213" t="s">
+      <c r="P213" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q213" s="1" t="s">
@@ -14996,7 +14994,7 @@
       <c r="O214" t="s">
         <v>2</v>
       </c>
-      <c r="P214" t="s">
+      <c r="P214" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q214" s="1" t="s">
@@ -15061,7 +15059,7 @@
       <c r="O215" t="s">
         <v>9</v>
       </c>
-      <c r="P215" t="s">
+      <c r="P215" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q215" s="1" t="s">
@@ -15126,7 +15124,7 @@
       <c r="O216" t="s">
         <v>2</v>
       </c>
-      <c r="P216" t="s">
+      <c r="P216" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q216" s="1" t="s">
@@ -15191,7 +15189,7 @@
       <c r="O217" t="s">
         <v>2</v>
       </c>
-      <c r="P217" t="s">
+      <c r="P217" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q217" s="1" t="s">
@@ -15256,7 +15254,7 @@
       <c r="O218" t="s">
         <v>2</v>
       </c>
-      <c r="P218" t="s">
+      <c r="P218" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q218" s="1" t="s">
@@ -15321,7 +15319,7 @@
       <c r="O219" t="s">
         <v>9</v>
       </c>
-      <c r="P219" t="s">
+      <c r="P219" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q219" s="1" t="s">
@@ -15386,7 +15384,7 @@
       <c r="O220" t="s">
         <v>9</v>
       </c>
-      <c r="P220" t="s">
+      <c r="P220" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q220" s="1" t="s">
@@ -15451,7 +15449,7 @@
       <c r="O221" t="s">
         <v>2</v>
       </c>
-      <c r="P221" t="s">
+      <c r="P221" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q221" s="1" t="s">
@@ -15516,7 +15514,7 @@
       <c r="O222" t="s">
         <v>2</v>
       </c>
-      <c r="P222" t="s">
+      <c r="P222" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q222" s="1" t="s">
@@ -15581,7 +15579,7 @@
       <c r="O223" t="s">
         <v>9</v>
       </c>
-      <c r="P223" t="s">
+      <c r="P223" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q223" s="1" t="s">
@@ -15646,7 +15644,7 @@
       <c r="O224" t="s">
         <v>9</v>
       </c>
-      <c r="P224" t="s">
+      <c r="P224" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q224" s="1" t="s">
@@ -15711,7 +15709,7 @@
       <c r="O225" t="s">
         <v>2</v>
       </c>
-      <c r="P225" t="s">
+      <c r="P225" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q225" s="1" t="s">
@@ -15776,7 +15774,7 @@
       <c r="O226" t="s">
         <v>2</v>
       </c>
-      <c r="P226" t="s">
+      <c r="P226" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q226" s="1" t="s">
@@ -15841,7 +15839,7 @@
       <c r="O227" t="s">
         <v>2</v>
       </c>
-      <c r="P227" t="s">
+      <c r="P227" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q227" s="1" t="s">
@@ -15906,7 +15904,7 @@
       <c r="O228" t="s">
         <v>2</v>
       </c>
-      <c r="P228" t="s">
+      <c r="P228" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q228" s="1" t="s">
@@ -15971,7 +15969,7 @@
       <c r="O229" t="s">
         <v>2</v>
       </c>
-      <c r="P229" t="s">
+      <c r="P229" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q229" s="1" t="s">
@@ -16036,7 +16034,7 @@
       <c r="O230" t="s">
         <v>9</v>
       </c>
-      <c r="P230" t="s">
+      <c r="P230" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q230" s="1" t="s">
@@ -16101,7 +16099,7 @@
       <c r="O231" t="s">
         <v>2</v>
       </c>
-      <c r="P231" t="s">
+      <c r="P231" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q231" s="1" t="s">
@@ -16166,7 +16164,7 @@
       <c r="O232" t="s">
         <v>9</v>
       </c>
-      <c r="P232" t="s">
+      <c r="P232" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q232" s="1" t="s">
@@ -16231,7 +16229,7 @@
       <c r="O233" t="s">
         <v>2</v>
       </c>
-      <c r="P233" t="s">
+      <c r="P233" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q233" s="1" t="s">
@@ -16296,7 +16294,7 @@
       <c r="O234" t="s">
         <v>9</v>
       </c>
-      <c r="P234" t="s">
+      <c r="P234" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q234" s="1" t="s">
@@ -16361,7 +16359,7 @@
       <c r="O235" t="s">
         <v>2</v>
       </c>
-      <c r="P235" t="s">
+      <c r="P235" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Q235" s="1" t="s">
@@ -16426,7 +16424,7 @@
       <c r="O236" t="s">
         <v>2</v>
       </c>
-      <c r="P236" t="s">
+      <c r="P236" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q236" s="1" t="s">
@@ -16491,7 +16489,7 @@
       <c r="O237" t="s">
         <v>2</v>
       </c>
-      <c r="P237" t="s">
+      <c r="P237" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q237" s="1" t="s">
@@ -16556,7 +16554,7 @@
       <c r="O238" t="s">
         <v>9</v>
       </c>
-      <c r="P238" t="s">
+      <c r="P238" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Q238" s="1" t="s">
@@ -16621,7 +16619,7 @@
       <c r="O239" t="s">
         <v>2</v>
       </c>
-      <c r="P239" t="s">
+      <c r="P239" s="1" t="s">
         <v>51</v>
       </c>
       <c r="Q239" s="1" t="s">
@@ -16686,7 +16684,7 @@
       <c r="O240" t="s">
         <v>2</v>
       </c>
-      <c r="P240" t="s">
+      <c r="P240" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q240" s="1" t="s">
@@ -16751,7 +16749,7 @@
       <c r="O241" t="s">
         <v>9</v>
       </c>
-      <c r="P241" t="s">
+      <c r="P241" s="1" t="s">
         <v>52</v>
       </c>
       <c r="Q241" s="1" t="s">
@@ -16816,7 +16814,7 @@
       <c r="O242" t="s">
         <v>2</v>
       </c>
-      <c r="P242" t="s">
+      <c r="P242" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Q242" s="1" t="s">
@@ -16881,7 +16879,7 @@
       <c r="O243" t="s">
         <v>2</v>
       </c>
-      <c r="P243" t="s">
+      <c r="P243" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q243" s="1" t="s">
@@ -16946,7 +16944,7 @@
       <c r="O244" t="s">
         <v>2</v>
       </c>
-      <c r="P244" t="s">
+      <c r="P244" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q244" s="1" t="s">
@@ -17011,7 +17009,7 @@
       <c r="O245" t="s">
         <v>2</v>
       </c>
-      <c r="P245" t="s">
+      <c r="P245" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q245" s="1" t="s">
@@ -17076,7 +17074,7 @@
       <c r="O246" t="s">
         <v>2</v>
       </c>
-      <c r="P246" t="s">
+      <c r="P246" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q246" s="1" t="s">
@@ -17141,7 +17139,7 @@
       <c r="O247" t="s">
         <v>2</v>
       </c>
-      <c r="P247" t="s">
+      <c r="P247" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q247" s="1" t="s">
@@ -17206,7 +17204,7 @@
       <c r="O248" t="s">
         <v>2</v>
       </c>
-      <c r="P248" t="s">
+      <c r="P248" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q248" s="1" t="s">
@@ -17271,7 +17269,7 @@
       <c r="O249" t="s">
         <v>2</v>
       </c>
-      <c r="P249" t="s">
+      <c r="P249" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q249" s="1" t="s">
@@ -17336,7 +17334,7 @@
       <c r="O250" t="s">
         <v>2</v>
       </c>
-      <c r="P250" t="s">
+      <c r="P250" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q250" s="1" t="s">
@@ -17401,7 +17399,7 @@
       <c r="O251" t="s">
         <v>2</v>
       </c>
-      <c r="P251" t="s">
+      <c r="P251" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q251" s="1" t="s">
@@ -17466,7 +17464,7 @@
       <c r="O252" t="s">
         <v>2</v>
       </c>
-      <c r="P252" t="s">
+      <c r="P252" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q252" s="1" t="s">
@@ -17531,7 +17529,7 @@
       <c r="O253" t="s">
         <v>2</v>
       </c>
-      <c r="P253" t="s">
+      <c r="P253" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q253" s="1" t="s">
@@ -17596,7 +17594,7 @@
       <c r="O254" t="s">
         <v>2</v>
       </c>
-      <c r="P254" t="s">
+      <c r="P254" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q254" s="1" t="s">
@@ -17661,7 +17659,7 @@
       <c r="O255" t="s">
         <v>2</v>
       </c>
-      <c r="P255" t="s">
+      <c r="P255" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q255" s="1" t="s">
@@ -17726,7 +17724,7 @@
       <c r="O256" t="s">
         <v>2</v>
       </c>
-      <c r="P256" t="s">
+      <c r="P256" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q256" s="1" t="s">
@@ -17791,7 +17789,7 @@
       <c r="O257" t="s">
         <v>9</v>
       </c>
-      <c r="P257" t="s">
+      <c r="P257" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q257" s="1" t="s">
@@ -17856,7 +17854,7 @@
       <c r="O258" t="s">
         <v>2</v>
       </c>
-      <c r="P258" t="s">
+      <c r="P258" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q258" s="1" t="s">
@@ -17921,7 +17919,7 @@
       <c r="O259" t="s">
         <v>9</v>
       </c>
-      <c r="P259" t="s">
+      <c r="P259" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q259" s="1" t="s">
@@ -17986,7 +17984,7 @@
       <c r="O260" t="s">
         <v>9</v>
       </c>
-      <c r="P260" t="s">
+      <c r="P260" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q260" s="1" t="s">
@@ -18051,7 +18049,7 @@
       <c r="O261" t="s">
         <v>2</v>
       </c>
-      <c r="P261" t="s">
+      <c r="P261" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q261" s="1" t="s">
@@ -18116,7 +18114,7 @@
       <c r="O262" t="s">
         <v>2</v>
       </c>
-      <c r="P262" t="s">
+      <c r="P262" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q262" s="1" t="s">
@@ -18181,7 +18179,7 @@
       <c r="O263" t="s">
         <v>9</v>
       </c>
-      <c r="P263" t="s">
+      <c r="P263" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Q263" s="1" t="s">
@@ -18246,7 +18244,7 @@
       <c r="O264" t="s">
         <v>2</v>
       </c>
-      <c r="P264" t="s">
+      <c r="P264" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Q264" s="1" t="s">
@@ -18311,7 +18309,7 @@
       <c r="O265" t="s">
         <v>2</v>
       </c>
-      <c r="P265" t="s">
+      <c r="P265" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q265" s="1" t="s">
@@ -18376,7 +18374,7 @@
       <c r="O266" t="s">
         <v>2</v>
       </c>
-      <c r="P266" t="s">
+      <c r="P266" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q266" s="1" t="s">
@@ -18441,7 +18439,7 @@
       <c r="O267" t="s">
         <v>9</v>
       </c>
-      <c r="P267" t="s">
+      <c r="P267" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q267" s="1" t="s">
@@ -18506,7 +18504,7 @@
       <c r="O268" t="s">
         <v>2</v>
       </c>
-      <c r="P268" t="s">
+      <c r="P268" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q268" s="1" t="s">
@@ -18571,7 +18569,7 @@
       <c r="O269" t="s">
         <v>2</v>
       </c>
-      <c r="P269" t="s">
+      <c r="P269" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q269" s="1" t="s">
@@ -18636,7 +18634,7 @@
       <c r="O270" t="s">
         <v>2</v>
       </c>
-      <c r="P270" t="s">
+      <c r="P270" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q270" s="1" t="s">
@@ -18701,7 +18699,7 @@
       <c r="O271" t="s">
         <v>9</v>
       </c>
-      <c r="P271" t="s">
+      <c r="P271" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q271" s="1" t="s">
@@ -18766,7 +18764,7 @@
       <c r="O272" t="s">
         <v>2</v>
       </c>
-      <c r="P272" t="s">
+      <c r="P272" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q272" s="1" t="s">
@@ -18831,7 +18829,7 @@
       <c r="O273" t="s">
         <v>2</v>
       </c>
-      <c r="P273" t="s">
+      <c r="P273" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q273" s="1" t="s">
@@ -18896,7 +18894,7 @@
       <c r="O274" t="s">
         <v>2</v>
       </c>
-      <c r="P274" t="s">
+      <c r="P274" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q274" s="1" t="s">
@@ -18961,7 +18959,7 @@
       <c r="O275" t="s">
         <v>2</v>
       </c>
-      <c r="P275" t="s">
+      <c r="P275" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Q275" s="1" t="s">
@@ -19026,7 +19024,7 @@
       <c r="O276" t="s">
         <v>2</v>
       </c>
-      <c r="P276" t="s">
+      <c r="P276" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q276" s="1" t="s">
@@ -19091,7 +19089,7 @@
       <c r="O277" t="s">
         <v>2</v>
       </c>
-      <c r="P277" t="s">
+      <c r="P277" s="1" t="s">
         <v>71</v>
       </c>
       <c r="Q277" s="1" t="s">
@@ -19156,7 +19154,7 @@
       <c r="O278" t="s">
         <v>2</v>
       </c>
-      <c r="P278" t="s">
+      <c r="P278" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q278" s="1" t="s">
@@ -19221,7 +19219,7 @@
       <c r="O279" t="s">
         <v>2</v>
       </c>
-      <c r="P279" t="s">
+      <c r="P279" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Q279" s="1" t="s">
@@ -19286,7 +19284,7 @@
       <c r="O280" t="s">
         <v>2</v>
       </c>
-      <c r="P280" t="s">
+      <c r="P280" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q280" s="1" t="s">
@@ -19351,7 +19349,7 @@
       <c r="O281" t="s">
         <v>2</v>
       </c>
-      <c r="P281" t="s">
+      <c r="P281" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q281" s="1" t="s">
@@ -19416,7 +19414,7 @@
       <c r="O282" t="s">
         <v>9</v>
       </c>
-      <c r="P282" t="s">
+      <c r="P282" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q282" s="1" t="s">
@@ -19481,7 +19479,7 @@
       <c r="O283" t="s">
         <v>2</v>
       </c>
-      <c r="P283" t="s">
+      <c r="P283" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q283" s="1" t="s">
@@ -19546,7 +19544,7 @@
       <c r="O284" t="s">
         <v>2</v>
       </c>
-      <c r="P284" t="s">
+      <c r="P284" s="1" t="s">
         <v>52</v>
       </c>
       <c r="Q284" s="1" t="s">
@@ -19611,7 +19609,7 @@
       <c r="O285" t="s">
         <v>2</v>
       </c>
-      <c r="P285" t="s">
+      <c r="P285" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Q285" s="1" t="s">
@@ -19676,7 +19674,7 @@
       <c r="O286" t="s">
         <v>2</v>
       </c>
-      <c r="P286" t="s">
+      <c r="P286" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Q286" s="1" t="s">
@@ -19741,7 +19739,7 @@
       <c r="O287" t="s">
         <v>2</v>
       </c>
-      <c r="P287" t="s">
+      <c r="P287" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Q287" s="1" t="s">
@@ -19806,7 +19804,7 @@
       <c r="O288" t="s">
         <v>2</v>
       </c>
-      <c r="P288" t="s">
+      <c r="P288" s="1" t="s">
         <v>60</v>
       </c>
       <c r="Q288" s="1" t="s">
@@ -19871,7 +19869,7 @@
       <c r="O289" t="s">
         <v>2</v>
       </c>
-      <c r="P289" t="s">
+      <c r="P289" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q289" s="1" t="s">
@@ -19936,7 +19934,7 @@
       <c r="O290" t="s">
         <v>2</v>
       </c>
-      <c r="P290" t="s">
+      <c r="P290" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q290" s="1" t="s">
@@ -20001,7 +19999,7 @@
       <c r="O291" t="s">
         <v>9</v>
       </c>
-      <c r="P291" t="s">
+      <c r="P291" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q291" s="1" t="s">
@@ -20066,7 +20064,7 @@
       <c r="O292" t="s">
         <v>2</v>
       </c>
-      <c r="P292" t="s">
+      <c r="P292" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Q292" s="1" t="s">
